--- a/testresult.xlsx
+++ b/testresult.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA200"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -101,7 +101,13 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>foo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/testresult.xlsx
+++ b/testresult.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -107,6 +107,21 @@
           <t>foo</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>baz</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>baq</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
